--- a/census/places/schools.xlsx
+++ b/census/places/schools.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\COVID\census\places\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\JuliaABM\census\places\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="2561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="2564">
   <si>
     <t>rayon</t>
   </si>
@@ -7702,6 +7702,15 @@
   </si>
   <si>
     <t>55,703255</t>
+  </si>
+  <si>
+    <t>район Арбат</t>
+  </si>
+  <si>
+    <t>55,749797</t>
+  </si>
+  <si>
+    <t>37,588871</t>
   </si>
 </sst>
 </file>
@@ -8038,10 +8047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1231"/>
+  <dimension ref="A1:N1232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A1223" workbookViewId="0">
+      <selection activeCell="B1235" sqref="B1235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28978,6 +28987,17 @@
       <c r="K1231" s="1"/>
       <c r="N1231" s="1"/>
     </row>
+    <row r="1232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>2562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
